--- a/Professor_Welcome_Jiang_Ping.xlsx
+++ b/Professor_Welcome_Jiang_Ping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12791" windowHeight="9300"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="529">
   <si>
     <t>关键词</t>
   </si>
@@ -206,6 +206,9 @@
     <t>2024-06-24 10:30:57.735</t>
   </si>
   <si>
+    <t>反对</t>
+  </si>
+  <si>
     <t>花**</t>
   </si>
   <si>
@@ -273,6 +276,9 @@
   </si>
   <si>
     <t>2024-06-24 10:30:58.637</t>
+  </si>
+  <si>
+    <t>反对·</t>
   </si>
   <si>
     <t>疾**</t>
@@ -312,43 +318,46 @@
     <t>2024-06-24 10:30:59.517</t>
   </si>
   <si>
+    <t>湖**</t>
+  </si>
+  <si>
+    <t>06月14日 18:41</t>
+  </si>
+  <si>
+    <t>https://weibo.com/2827102952/OiYOHbEne?refer_flag=1001030103_</t>
+  </si>
+  <si>
+    <t>【数学老师想帮姜萍看到不一样的未来】近日，17岁中专生姜萍，以93分的高分名列全球数学竞赛第12名，引发网友关注。姜萍数学的领路人王闰秋，今年也参加了竞赛。和姜萍一样，王闰秋也非常喜欢数学。2022年，他考到了姜萍所在的学校。姜萍是他带的第一届学生。第一次月考数学成绩遥遥领先的姜萍，便引起了他的注意。王闰秋说，当时150分的数学卷子，姜萍都能考到130至140多分，而班里排在第二位的同学，只能考到五六十分，姜萍断崖式领先。这个与众不同的姑娘，让王闰秋想到了自己。在学习数学的道路上，王闰秋也遇到过很多挫折，现在回想起来，如果自己年轻时有个领路人，也许人生会不一样。“所以我想尽自己的可能帮助他们，让他们知道还有不一样的未来。”#浙江大学数学系教授欢迎姜萍来浙大##姜萍回应拿下数学竞赛全球12名#（综合央视新闻、都市快报） L央视新闻的微博视频 收起d</t>
+  </si>
+  <si>
+    <t>http://wx4.sinaimg.cn/orj480/002TLsr9ly1hqovbizv57j60u0140nmv02.jpg</t>
+  </si>
+  <si>
+    <t>//f.video.weibocdn.com/o0/hBAjlYsplx08fE053KJa01041200bJXP0E010.mp4?label=mp4_720p&amp;template=720x1132.24.0&amp;ori=0&amp;ps=1BVp4ysnknHVZu&amp;Expires=1719199842&amp;ssig=VhjRDWrokY&amp;KID=unistore,video</t>
+  </si>
+  <si>
+    <t>2024-06-24 10:31:00.152</t>
+  </si>
+  <si>
+    <t>理性讨论</t>
+  </si>
+  <si>
+    <t>欲**</t>
+  </si>
+  <si>
+    <t>06月14日 18:24</t>
+  </si>
+  <si>
+    <t>https://weibo.com/7482975911/OiYI5jCAP?refer_flag=1001030103_</t>
+  </si>
+  <si>
+    <t>#浙江大学数学系教授欢迎姜萍来浙大#姜萍，可以理解为玄幻小说里那种平平无奇但是到时间了直接就觉醒道骨的存在，之后的成长直接就是傲视群雄了，一剑灭杀各宗门圣子圣女的存在。 ​</t>
+  </si>
+  <si>
+    <t>2024-06-24 10:31:00.967</t>
+  </si>
+  <si>
     <t>娱乐化讨论</t>
-  </si>
-  <si>
-    <t>湖**</t>
-  </si>
-  <si>
-    <t>06月14日 18:41</t>
-  </si>
-  <si>
-    <t>https://weibo.com/2827102952/OiYOHbEne?refer_flag=1001030103_</t>
-  </si>
-  <si>
-    <t>【数学老师想帮姜萍看到不一样的未来】近日，17岁中专生姜萍，以93分的高分名列全球数学竞赛第12名，引发网友关注。姜萍数学的领路人王闰秋，今年也参加了竞赛。和姜萍一样，王闰秋也非常喜欢数学。2022年，他考到了姜萍所在的学校。姜萍是他带的第一届学生。第一次月考数学成绩遥遥领先的姜萍，便引起了他的注意。王闰秋说，当时150分的数学卷子，姜萍都能考到130至140多分，而班里排在第二位的同学，只能考到五六十分，姜萍断崖式领先。这个与众不同的姑娘，让王闰秋想到了自己。在学习数学的道路上，王闰秋也遇到过很多挫折，现在回想起来，如果自己年轻时有个领路人，也许人生会不一样。“所以我想尽自己的可能帮助他们，让他们知道还有不一样的未来。”#浙江大学数学系教授欢迎姜萍来浙大##姜萍回应拿下数学竞赛全球12名#（综合央视新闻、都市快报） L央视新闻的微博视频 收起d</t>
-  </si>
-  <si>
-    <t>http://wx4.sinaimg.cn/orj480/002TLsr9ly1hqovbizv57j60u0140nmv02.jpg</t>
-  </si>
-  <si>
-    <t>//f.video.weibocdn.com/o0/hBAjlYsplx08fE053KJa01041200bJXP0E010.mp4?label=mp4_720p&amp;template=720x1132.24.0&amp;ori=0&amp;ps=1BVp4ysnknHVZu&amp;Expires=1719199842&amp;ssig=VhjRDWrokY&amp;KID=unistore,video</t>
-  </si>
-  <si>
-    <t>2024-06-24 10:31:00.152</t>
-  </si>
-  <si>
-    <t>欲**</t>
-  </si>
-  <si>
-    <t>06月14日 18:24</t>
-  </si>
-  <si>
-    <t>https://weibo.com/7482975911/OiYI5jCAP?refer_flag=1001030103_</t>
-  </si>
-  <si>
-    <t>#浙江大学数学系教授欢迎姜萍来浙大#姜萍，可以理解为玄幻小说里那种平平无奇但是到时间了直接就觉醒道骨的存在，之后的成长直接就是傲视群雄了，一剑灭杀各宗门圣子圣女的存在。 ​</t>
-  </si>
-  <si>
-    <t>2024-06-24 10:31:00.967</t>
   </si>
   <si>
     <t>九**</t>
@@ -507,6 +516,9 @@
   </si>
   <si>
     <t>2024-06-24 10:31:12.153</t>
+  </si>
+  <si>
+    <t>未分类</t>
   </si>
   <si>
     <t>我**</t>
@@ -1706,11 +1718,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2167,19 +2179,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2189,7 +2201,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2313,12 +2325,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2667,8 +2680,8 @@
   <sheetPr/>
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="M108" sqref="M108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2733,7 +2746,7 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I2">
@@ -2971,7 +2984,7 @@
         <v>54</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2982,22 +2995,22 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -3009,7 +3022,7 @@
         <v>86</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M9" t="s">
         <v>21</v>
@@ -3023,16 +3036,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3044,7 +3057,7 @@
         <v>73</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" t="s">
         <v>21</v>
@@ -3058,19 +3071,19 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -3082,7 +3095,7 @@
         <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" t="s">
         <v>21</v>
@@ -3096,16 +3109,16 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12">
         <v>12</v>
@@ -3117,10 +3130,10 @@
         <v>387</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3131,19 +3144,19 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -3155,7 +3168,7 @@
         <v>313</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M13" t="s">
         <v>37</v>
@@ -3169,19 +3182,19 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -3193,10 +3206,10 @@
         <v>70</v>
       </c>
       <c r="L14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M14" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3207,22 +3220,22 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I15">
         <v>31</v>
@@ -3234,10 +3247,10 @@
         <v>295</v>
       </c>
       <c r="L15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3248,16 +3261,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -3269,10 +3282,10 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M16" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -3283,16 +3296,16 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3304,7 +3317,7 @@
         <v>4</v>
       </c>
       <c r="L17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s">
         <v>37</v>
@@ -3318,16 +3331,16 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3339,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M18" t="s">
         <v>21</v>
@@ -3353,16 +3366,16 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3374,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M19" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -3388,19 +3401,19 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I20">
         <v>17</v>
@@ -3412,7 +3425,7 @@
         <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M20" t="s">
         <v>21</v>
@@ -3426,16 +3439,16 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -3447,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M21" t="s">
         <v>37</v>
@@ -3461,16 +3474,16 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3482,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M22" t="s">
         <v>21</v>
@@ -3496,22 +3509,22 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -3523,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M23" t="s">
         <v>21</v>
@@ -3537,19 +3550,19 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -3561,10 +3574,10 @@
         <v>74</v>
       </c>
       <c r="L24" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -3575,16 +3588,16 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3596,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M25" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -3610,19 +3623,19 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F26" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I26">
         <v>19</v>
@@ -3634,7 +3647,7 @@
         <v>117</v>
       </c>
       <c r="L26" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M26" t="s">
         <v>21</v>
@@ -3648,22 +3661,22 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H27" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -3675,10 +3688,10 @@
         <v>8</v>
       </c>
       <c r="L27" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M27" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -3689,16 +3702,16 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3710,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M28" t="s">
         <v>37</v>
@@ -3724,16 +3737,16 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D29" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3745,10 +3758,10 @@
         <v>2</v>
       </c>
       <c r="L29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M29" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -3759,16 +3772,16 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" t="s">
         <v>175</v>
       </c>
-      <c r="D30" t="s">
-        <v>171</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F30" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3780,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M30" t="s">
         <v>21</v>
@@ -3794,19 +3807,19 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D31" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F31" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I31">
         <v>15</v>
@@ -3818,7 +3831,7 @@
         <v>233</v>
       </c>
       <c r="L31" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M31" t="s">
         <v>21</v>
@@ -3832,22 +3845,22 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F32" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H32" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I32">
         <v>43</v>
@@ -3859,33 +3872,33 @@
         <v>24</v>
       </c>
       <c r="L32" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M32" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F33" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3897,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M33" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -3911,16 +3924,16 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F34" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -3932,7 +3945,7 @@
         <v>12</v>
       </c>
       <c r="L34" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M34" t="s">
         <v>21</v>
@@ -3946,16 +3959,16 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F35" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3967,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="L35" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M35" t="s">
         <v>37</v>
@@ -3981,16 +3994,16 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F36" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4002,10 +4015,10 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M36" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -4016,19 +4029,19 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D37" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F37" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I37">
         <v>34</v>
@@ -4040,7 +4053,7 @@
         <v>1354</v>
       </c>
       <c r="L37" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M37" t="s">
         <v>21</v>
@@ -4054,22 +4067,22 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D38" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F38" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H38" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -4081,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M38" t="s">
         <v>21</v>
@@ -4095,16 +4108,16 @@
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D39" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F39" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4116,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M39" t="s">
         <v>21</v>
@@ -4130,19 +4143,19 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D40" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F40" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4154,7 +4167,7 @@
         <v>3</v>
       </c>
       <c r="L40" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M40" t="s">
         <v>21</v>
@@ -4168,16 +4181,16 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D41" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F41" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4189,7 +4202,7 @@
         <v>3</v>
       </c>
       <c r="L41" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M41" t="s">
         <v>37</v>
@@ -4203,16 +4216,16 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D42" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F42" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -4224,10 +4237,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M42" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -4238,22 +4251,22 @@
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D43" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F43" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -4265,7 +4278,7 @@
         <v>6</v>
       </c>
       <c r="L43" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M43" t="s">
         <v>21</v>
@@ -4279,16 +4292,16 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D44" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F44" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -4300,10 +4313,10 @@
         <v>17</v>
       </c>
       <c r="L44" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M44" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -4314,16 +4327,16 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D45" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F45" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -4335,10 +4348,10 @@
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M45" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -4349,16 +4362,16 @@
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D46" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F46" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -4370,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M46" t="s">
         <v>21</v>
@@ -4384,16 +4397,16 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D47" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F47" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4405,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M47" t="s">
         <v>21</v>
@@ -4419,16 +4432,16 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D48" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F48" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -4440,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M48" t="s">
         <v>21</v>
@@ -4454,16 +4467,16 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D49" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F49" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I49">
         <v>7</v>
@@ -4475,7 +4488,7 @@
         <v>270</v>
       </c>
       <c r="L49" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M49" t="s">
         <v>21</v>
@@ -4489,19 +4502,19 @@
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D50" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F50" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I50">
         <v>4</v>
@@ -4513,10 +4526,10 @@
         <v>24</v>
       </c>
       <c r="L50" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M50" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4527,16 +4540,16 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D51" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F51" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4548,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M51" t="s">
         <v>21</v>
@@ -4562,19 +4575,19 @@
         <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D52" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F52" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -4586,10 +4599,10 @@
         <v>4</v>
       </c>
       <c r="L52" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M52" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -4600,16 +4613,16 @@
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D53" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F53" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -4621,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M53" t="s">
         <v>21</v>
@@ -4635,19 +4648,19 @@
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D54" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F54" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="I54">
         <v>3</v>
@@ -4659,7 +4672,7 @@
         <v>4</v>
       </c>
       <c r="L54" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M54" t="s">
         <v>37</v>
@@ -4673,19 +4686,19 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D55" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F55" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -4697,10 +4710,10 @@
         <v>14</v>
       </c>
       <c r="L55" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M55" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -4711,16 +4724,16 @@
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D56" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F56" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4732,7 +4745,7 @@
         <v>3</v>
       </c>
       <c r="L56" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M56" t="s">
         <v>21</v>
@@ -4746,16 +4759,16 @@
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D57" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F57" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4767,7 +4780,7 @@
         <v>17</v>
       </c>
       <c r="L57" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M57" t="s">
         <v>37</v>
@@ -4781,16 +4794,16 @@
         <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D58" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F58" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -4802,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M58" t="s">
         <v>21</v>
@@ -4816,19 +4829,19 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D59" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F59" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -4840,10 +4853,10 @@
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M59" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -4854,16 +4867,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D60" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F60" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -4875,10 +4888,10 @@
         <v>4</v>
       </c>
       <c r="L60" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M60" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -4889,16 +4902,16 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D61" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F61" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -4910,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M61" t="s">
         <v>21</v>
@@ -4924,16 +4937,16 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D62" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F62" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -4945,10 +4958,10 @@
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M62" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -4959,16 +4972,16 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
+        <v>354</v>
+      </c>
+      <c r="D63" t="s">
         <v>350</v>
       </c>
-      <c r="D63" t="s">
-        <v>346</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F63" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4980,10 +4993,10 @@
         <v>3</v>
       </c>
       <c r="L63" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M63" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -4994,19 +5007,19 @@
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D64" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F64" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -5018,10 +5031,10 @@
         <v>14</v>
       </c>
       <c r="L64" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M64" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -5032,16 +5045,16 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D65" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F65" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -5053,10 +5066,10 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M65" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -5067,16 +5080,16 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D66" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F66" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -5088,10 +5101,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M66" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -5102,16 +5115,16 @@
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D67" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F67" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -5123,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M67" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -5137,16 +5150,16 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -5158,10 +5171,10 @@
         <v>73</v>
       </c>
       <c r="L68" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M68" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -5172,19 +5185,19 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D69" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F69" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -5196,10 +5209,10 @@
         <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M69" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -5210,16 +5223,16 @@
         <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D70" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F70" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -5231,10 +5244,10 @@
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M70" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -5245,19 +5258,19 @@
         <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D71" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F71" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -5269,10 +5282,10 @@
         <v>5</v>
       </c>
       <c r="L71" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M71" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -5283,16 +5296,16 @@
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D72" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F72" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -5304,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M72" t="s">
         <v>21</v>
@@ -5318,16 +5331,16 @@
         <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D73" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F73" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -5339,10 +5352,10 @@
         <v>2</v>
       </c>
       <c r="L73" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M73" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -5353,19 +5366,19 @@
         <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D74" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F74" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="I74">
         <v>3</v>
@@ -5377,7 +5390,7 @@
         <v>17</v>
       </c>
       <c r="L74" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M74" t="s">
         <v>21</v>
@@ -5391,16 +5404,16 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D75" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="F75" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -5412,10 +5425,10 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M75" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -5426,16 +5439,16 @@
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D76" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F76" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -5447,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M76" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -5461,16 +5474,16 @@
         <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D77" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F77" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -5482,10 +5495,10 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M77" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -5496,19 +5509,19 @@
         <v>14</v>
       </c>
       <c r="C78" t="s">
+        <v>427</v>
+      </c>
+      <c r="D78" t="s">
         <v>423</v>
       </c>
-      <c r="D78" t="s">
-        <v>419</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F78" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -5520,10 +5533,10 @@
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M78" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -5534,16 +5547,16 @@
         <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D79" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F79" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -5555,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="M79" t="s">
         <v>21</v>
@@ -5569,16 +5582,16 @@
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D80" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F80" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -5590,7 +5603,7 @@
         <v>2</v>
       </c>
       <c r="L80" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M80" t="s">
         <v>21</v>
@@ -5604,16 +5617,16 @@
         <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D81" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F81" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -5625,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M81" t="s">
         <v>21</v>
@@ -5639,16 +5652,16 @@
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D82" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F82" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -5660,7 +5673,7 @@
         <v>2</v>
       </c>
       <c r="L82" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M82" t="s">
         <v>21</v>
@@ -5674,22 +5687,22 @@
         <v>14</v>
       </c>
       <c r="C83" t="s">
+        <v>449</v>
+      </c>
+      <c r="D83" t="s">
         <v>445</v>
       </c>
-      <c r="D83" t="s">
-        <v>441</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F83" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H83" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -5701,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M83" t="s">
         <v>21</v>
@@ -5715,23 +5728,23 @@
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D84" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F84" t="s">
+        <v>457</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="F84" t="s">
+      <c r="H84" t="s">
         <v>453</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="H84" t="s">
-        <v>449</v>
-      </c>
       <c r="I84">
         <v>0</v>
       </c>
@@ -5742,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M84" t="s">
         <v>21</v>
@@ -5756,16 +5769,16 @@
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D85" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F85" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -5777,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M85" t="s">
         <v>21</v>
@@ -5791,16 +5804,16 @@
         <v>14</v>
       </c>
       <c r="C86" t="s">
+        <v>464</v>
+      </c>
+      <c r="D86" t="s">
         <v>460</v>
       </c>
-      <c r="D86" t="s">
-        <v>456</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F86" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -5812,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="M86" t="s">
         <v>21</v>
@@ -5826,16 +5839,16 @@
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D87" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F87" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -5847,7 +5860,7 @@
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M87" t="s">
         <v>37</v>
@@ -5861,16 +5874,16 @@
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D88" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="F88" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -5882,7 +5895,7 @@
         <v>3</v>
       </c>
       <c r="L88" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="M88" t="s">
         <v>21</v>
@@ -5896,19 +5909,19 @@
         <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D89" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F89" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I89">
         <v>9</v>
@@ -5920,7 +5933,7 @@
         <v>313</v>
       </c>
       <c r="L89" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="M89" t="s">
         <v>37</v>
@@ -5934,16 +5947,16 @@
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D90" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F90" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -5955,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="M90" t="s">
         <v>21</v>
@@ -5969,16 +5982,16 @@
         <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D91" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F91" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -5990,7 +6003,7 @@
         <v>3</v>
       </c>
       <c r="L91" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M91" t="s">
         <v>37</v>
@@ -6004,16 +6017,16 @@
         <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D92" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F92" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -6025,7 +6038,7 @@
         <v>6</v>
       </c>
       <c r="L92" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="M92" t="s">
         <v>21</v>
@@ -6039,16 +6052,16 @@
         <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D93" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F93" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -6060,10 +6073,10 @@
         <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="M93" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -6074,16 +6087,16 @@
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D94" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="F94" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -6095,7 +6108,7 @@
         <v>6</v>
       </c>
       <c r="L94" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="M94" t="s">
         <v>21</v>
@@ -6109,16 +6122,16 @@
         <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D95" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F95" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I95">
         <v>18</v>
@@ -6130,7 +6143,7 @@
         <v>25</v>
       </c>
       <c r="L95" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="M95" t="s">
         <v>21</v>
@@ -6144,16 +6157,16 @@
         <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D96" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F96" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -6165,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="M96" t="s">
         <v>21</v>
@@ -6179,19 +6192,19 @@
         <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D97" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F97" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="I97">
         <v>6</v>
@@ -6203,7 +6216,7 @@
         <v>41</v>
       </c>
       <c r="L97" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="M97" t="s">
         <v>21</v>
@@ -6217,16 +6230,16 @@
         <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D98" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="F98" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -6238,10 +6251,10 @@
         <v>3</v>
       </c>
       <c r="L98" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="M98" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -6252,16 +6265,16 @@
         <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D99" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="F99" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -6273,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="L99" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M99" t="s">
         <v>37</v>
@@ -6287,16 +6300,16 @@
         <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D100" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="F100" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -6308,10 +6321,10 @@
         <v>1</v>
       </c>
       <c r="L100" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M100" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
